--- a/Student_Marks.xlsx
+++ b/Student_Marks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyThings\Development\SSIS_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA99F2A9-4360-454E-AC46-D52AC7463E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{156AFFB8-2D2E-49DE-B43A-115528930104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3BBFE08C-23A0-40BD-9BD8-99B07EDC42C3}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
